--- a/PRACTICA/EJERCICIO NORMALIZACION.xlsx
+++ b/PRACTICA/EJERCICIO NORMALIZACION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAW2221\Desktop\MIS APLICACIONES WEB\BBDD\PRACTICA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F676E10-7886-492C-990C-68675CF09876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D71030-A3A6-4E6B-9FE3-1AB14A87BFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="330" windowWidth="20445" windowHeight="11295" xr2:uid="{87A35C27-88D1-4F67-9CE0-6FCF557D0CBC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87A35C27-88D1-4F67-9CE0-6FCF557D0CBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="44">
   <si>
     <t>FECHA</t>
   </si>
@@ -152,16 +152,22 @@
     <t>TERCERA FORMA NORMAL</t>
   </si>
   <si>
-    <t>FCATURA_CLIENTE</t>
-  </si>
-  <si>
-    <t>FCATURA_CATEGORIA</t>
-  </si>
-  <si>
-    <t>FACTURA_PRECIO</t>
-  </si>
-  <si>
     <t>TOTAL FACTURADO</t>
+  </si>
+  <si>
+    <t>CODIGOPOSTAL-CIUDAD</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
+  </si>
+  <si>
+    <t>ARTICULO_PRECIO</t>
+  </si>
+  <si>
+    <t>LINEAS DE FACTURA</t>
+  </si>
+  <si>
+    <t>FACTURA_CLIENTE</t>
   </si>
 </sst>
 </file>
@@ -169,7 +175,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -239,19 +245,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,42 +574,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552A4663-7BCA-4B49-825E-907A25071404}">
-  <dimension ref="A3:P54"/>
+  <dimension ref="A3:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32:F33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" customWidth="1"/>
     <col min="13" max="13" width="24.85546875" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -992,7 +1002,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1024,7 +1034,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="1">
         <v>5486231</v>
       </c>
@@ -1054,7 +1064,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1080,7 +1090,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="1">
         <v>5486231</v>
       </c>
@@ -1105,7 +1115,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="1">
         <v>5486231</v>
       </c>
@@ -1130,7 +1140,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="1">
         <v>5486231</v>
       </c>
@@ -1155,7 +1165,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="1">
         <v>5486231</v>
       </c>
@@ -1180,7 +1190,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="1">
         <v>5486231</v>
       </c>
@@ -1205,7 +1215,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="1">
         <v>5486231</v>
       </c>
@@ -1230,7 +1240,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="1">
         <v>5486231</v>
       </c>
@@ -1260,308 +1270,384 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="G32" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="8">
+        <v>35789545</v>
+      </c>
+      <c r="C33" s="4">
+        <v>5486231</v>
+      </c>
+      <c r="D33" s="2">
+        <v>44019</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="9">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="4">
+        <v>22003</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="1">
+        <v>125</v>
+      </c>
+      <c r="F39" s="1">
+        <v>22003</v>
+      </c>
+      <c r="G39" s="4">
+        <v>35789545</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L41" s="7"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="4">
+        <v>5486231</v>
+      </c>
+      <c r="C43" s="4">
+        <v>458</v>
+      </c>
+      <c r="D43" s="8">
+        <v>2</v>
+      </c>
+      <c r="E43" s="9">
+        <f>E53*D43</f>
+        <v>40</v>
+      </c>
+      <c r="L43" s="7"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="4">
+        <v>5486231</v>
+      </c>
+      <c r="C44" s="4">
+        <v>145</v>
+      </c>
+      <c r="D44" s="8">
+        <v>2</v>
+      </c>
+      <c r="E44" s="9">
+        <f>E54*D44</f>
+        <v>16</v>
+      </c>
+      <c r="L44" s="7"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="4">
+        <v>5486231</v>
+      </c>
+      <c r="C45" s="4">
+        <v>687</v>
+      </c>
+      <c r="D45" s="8">
+        <v>4</v>
+      </c>
+      <c r="E45" s="9">
+        <f>E55*D45</f>
+        <v>40</v>
+      </c>
+      <c r="L45" s="7"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="4">
+        <v>5486231</v>
+      </c>
+      <c r="C46" s="4">
+        <v>357</v>
+      </c>
+      <c r="D46" s="8">
+        <v>1</v>
+      </c>
+      <c r="E46" s="9">
+        <f>E56*D46</f>
+        <v>6</v>
+      </c>
+      <c r="L46" s="7"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="4">
+        <v>5486231</v>
+      </c>
+      <c r="C47" s="4">
+        <v>159</v>
+      </c>
+      <c r="D47" s="8">
+        <v>1</v>
+      </c>
+      <c r="E47" s="9">
+        <f>E57*D47</f>
+        <v>15</v>
+      </c>
+      <c r="L47" s="7"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="4">
+        <v>5486231</v>
+      </c>
+      <c r="C48" s="4">
+        <v>456</v>
+      </c>
+      <c r="D48" s="8">
+        <v>10</v>
+      </c>
+      <c r="E48" s="9">
+        <f>E58*D48</f>
+        <v>30</v>
+      </c>
+      <c r="L48" s="7"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="4">
+        <v>5486231</v>
+      </c>
+      <c r="C49" s="4">
+        <v>111</v>
+      </c>
+      <c r="D49" s="8">
+        <v>1</v>
+      </c>
+      <c r="E49" s="9">
+        <f>E59*D49</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="6">
-        <v>5486231</v>
-      </c>
-      <c r="C33" s="2">
-        <v>44019</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="B52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="4">
+        <v>458</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="4">
+        <v>145</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="4">
+        <v>687</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="4">
+        <v>357</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="4">
+        <v>159</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="3">
         <v>15</v>
       </c>
-      <c r="F33" s="7">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="1">
-        <v>5486231</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="1">
-        <v>458</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="1">
-        <v>5486231</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="1">
-        <v>145</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="1">
-        <v>5486231</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="1">
-        <v>687</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="1">
-        <v>5486231</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="1">
-        <v>357</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="1">
-        <v>5486231</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="1">
-        <v>159</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="1">
-        <v>5486231</v>
-      </c>
-      <c r="C43" s="6" t="s">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="1">
+      <c r="C58" s="4">
         <v>456</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="1">
-        <v>5486231</v>
-      </c>
-      <c r="C44" s="6" t="s">
+      <c r="E58" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="1">
+      <c r="C59" s="4">
         <v>111</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="6" t="s">
+      <c r="E59" s="3">
         <v>12</v>
       </c>
-      <c r="F47" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="1">
-        <v>458</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="3">
-        <v>20</v>
-      </c>
-      <c r="E48" s="6">
-        <v>2</v>
-      </c>
-      <c r="F48" s="7">
-        <f>D48*E48</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>40</v>
-      </c>
-      <c r="B49" s="1">
-        <v>145</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="3">
-        <v>8</v>
-      </c>
-      <c r="E49" s="6">
-        <v>2</v>
-      </c>
-      <c r="F49" s="7">
-        <f t="shared" ref="F49:F54" si="2">D49*E49</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="1">
-        <v>687</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" s="3">
-        <v>10</v>
-      </c>
-      <c r="E50" s="6">
-        <v>4</v>
-      </c>
-      <c r="F50" s="7">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="1">
-        <v>357</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="3">
-        <v>6</v>
-      </c>
-      <c r="E51" s="6">
-        <v>1</v>
-      </c>
-      <c r="F51" s="7">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="1">
-        <v>159</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="3">
-        <v>15</v>
-      </c>
-      <c r="E52" s="6">
-        <v>1</v>
-      </c>
-      <c r="F52" s="7">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="1">
-        <v>456</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="3">
-        <v>3</v>
-      </c>
-      <c r="E53" s="6">
-        <v>10</v>
-      </c>
-      <c r="F53" s="7">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="1">
-        <v>111</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D54" s="3">
-        <v>12</v>
-      </c>
-      <c r="E54" s="6">
-        <v>1</v>
-      </c>
-      <c r="F54" s="7">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="A52:A59"/>
     <mergeCell ref="B3:P3"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A19:A26"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A35:A36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
